--- a/dati/2025/input/Autorità indipendenti.xlsx
+++ b/dati/2025/input/Autorità indipendenti.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Autorità indipendenti" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -286,35 +286,39 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -326,11 +330,11 @@
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Pivot Table Value" xfId="20"/>
+    <cellStyle name="Pivot Table Category" xfId="20"/>
     <cellStyle name="Pivot Table Field" xfId="21"/>
-    <cellStyle name="Pivot Table Category" xfId="22"/>
+    <cellStyle name="Pivot Table Result" xfId="22"/>
     <cellStyle name="Pivot Table Title" xfId="23"/>
-    <cellStyle name="Pivot Table Result" xfId="24"/>
+    <cellStyle name="Pivot Table Value" xfId="24"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -520,212 +524,212 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="71.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="71.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="12.63"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E8" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="1" t="s">
         <v>50</v>
       </c>
     </row>
